--- a/GDD/數值.xlsx
+++ b/GDD/數值.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chienlien\Desktop\Qiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chienlien\Desktop\Qiz\CODE\GDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E89E97B1-9A83-4B73-BE03-9D1A622EA610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65862A7C-6D40-41B5-8E24-0351827BE967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8BC723B8-6BEA-4E58-B647-6EF89256682C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>雙方正解的場合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扣除9秒或是(ABS(A答題時間-B答題時間))*3，取較大者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大招量表會依消耗掉的時間秒數填滿並依照落後/領先有不同效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,26 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>芭冷[百步蛇的新娘] 18秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>露露塔[Life of Live] 15秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">媞古[降靈術．金] 24秒 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莎美[D．D．D]  20秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(ABS(A答題時間-B答題時間))*2或是3秒，取較大者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>戰鬥流程： A玩家選題階段&gt;答題階段&gt;傷害階段&gt;B玩家選題階段&gt;答題階段&gt;傷害階段&gt;A玩家答題階段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扣除9秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>傷害階段：扣除答題階段使用的時間後，依照公式給予傷害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +176,46 @@
   </si>
   <si>
     <t>雙方相等時為平手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無中離處罰 但中離無法取得獎勵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai接手 Ai一率正確率50% 答題時間視為3.5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ABS(A答題時間-B答題時間))*2或是3秒，取大者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9秒或是(ABS(A答題時間-B答題時間))*3，取大者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各扣除9秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媞古[降靈術．金] 24秒  答題階段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎美[D．D．D]  20秒 選題階段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭冷[百步蛇的新娘] 18秒 選題階段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露露塔[Life of Live] 15秒 答題階段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +238,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,12 +269,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305414E9-5AA2-49B7-AC46-90DC1BBF1F14}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -590,10 +612,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.4">
@@ -601,21 +623,24 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -623,120 +648,126 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="E9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/GDD/數值.xlsx
+++ b/GDD/數值.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chienlien\Desktop\Qiz\CODE\GDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65862A7C-6D40-41B5-8E24-0351827BE967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AF9417-C899-42F4-8638-0379F82FE7BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8BC723B8-6BEA-4E58-B647-6EF89256682C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{8BC723B8-6BEA-4E58-B647-6EF89256682C}"/>
   </bookViews>
   <sheets>
     <sheet name="PVP答題設定" sheetId="1" r:id="rId1"/>
+    <sheet name="資料庫" sheetId="2" r:id="rId2"/>
+    <sheet name="貨幣整理" sheetId="3" r:id="rId3"/>
+    <sheet name="代幣投放" sheetId="4" r:id="rId4"/>
+    <sheet name="代幣消耗" sheetId="5" r:id="rId5"/>
+    <sheet name="VIP商店" sheetId="7" r:id="rId6"/>
+    <sheet name="課金價格表" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +38,154 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2CC79CF0-31A9-4616-A3B9-6818A64F0B00}</author>
+    <author>tc={54FB2E9B-E4CB-4FAB-9609-B65C7C122A80}</author>
+    <author>tc={25213E88-5974-4F29-922A-3C154CE5BB47}</author>
+    <author>tc={7D80912D-8296-4955-9E12-D743246BBC1D}</author>
+    <author>tc={4CEA781B-6B50-464E-97DB-FB61F5025886}</author>
+    <author>tc={C87613FD-E7F6-413A-8155-C41B9E232980}</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{2CC79CF0-31A9-4616-A3B9-6818A64F0B00}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    依名次1 2 四強 八強</t>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{54FB2E9B-E4CB-4FAB-9609-B65C7C122A80}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    大概40~80張書籤能夠完成一個章節</t>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="2" shapeId="0" xr:uid="{25213E88-5974-4F29-922A-3C154CE5BB47}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    大約5~10張書籤能夠完成一段落劇情</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="3" shapeId="0" xr:uid="{7D80912D-8296-4955-9E12-D743246BBC1D}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    視類型而定</t>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="4" shapeId="0" xr:uid="{4CEA781B-6B50-464E-97DB-FB61F5025886}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    通常會是5章左右就結束</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="5" shapeId="0" xr:uid="{C87613FD-E7F6-413A-8155-C41B9E232980}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    取得最高評價的情況</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D2390471-4588-4DBB-902E-6F0DBCD4536E}</author>
+    <author>tc={9C7292D0-B17D-4B69-BE19-8BD71C203A0A}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D2390471-4588-4DBB-902E-6F0DBCD4536E}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    轉蛋轉出來的是無期限書籤，價值比單純的替代高</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{9C7292D0-B17D-4B69-BE19-8BD71C203A0A}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    可以自選當期選出的過去八種限定造型中其一
+回覆:
+    也可以拆成上下半月，但共用券的額度</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F187925E-B140-4145-9069-9D161E7BB14A}</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{F187925E-B140-4145-9069-9D161E7BB14A}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    全角色都有，價格是30天每天農好農滿剛好夠換一角色</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DB1EAAB5-FBF0-4AE1-945B-D8494013391C}</author>
+    <author>tc={67EB9B90-9EEA-469D-853A-A75C6CD3EA6D}</author>
+    <author>tc={12C8A888-17B1-4F2B-9F35-F9B8409F16BF}</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{DB1EAAB5-FBF0-4AE1-945B-D8494013391C}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    30天</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="1" shapeId="0" xr:uid="{67EB9B90-9EEA-469D-853A-A75C6CD3EA6D}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    90天</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="2" shapeId="0" xr:uid="{12C8A888-17B1-4F2B-9F35-F9B8409F16BF}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    180天</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="179">
   <si>
     <t>雙方正解的場合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +368,536 @@
   </si>
   <si>
     <t>露露塔[Life of Live] 15秒 答題階段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照登錄創帳號順序，目前上限值可以壓小一點沒差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應該也是在遊戲中可以更改，登入用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登入天數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紀錄玩家登入次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勝利場次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生涯場次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總場次 可以用來算勝率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各領域答題正解數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各領域答題總數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只計算PVP部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生涯答題正解數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生涯答題總數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總正解率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各領域正解率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個或許不用存在資料庫? 客戶端處理就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均答題秒數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次對戰結束才抓平均數和資料庫的資料加權平均?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各角色解放狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bool </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應該用bool就行了?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帶著角色進行PVP對戰會提升，到達特定值之後可以開啟劇情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各角色羈絆值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各角色劇情解放狀況</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主線解放狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色劇情的解放狀況，數字越大可以開啟越後面的劇情(但到一定程度後必須要解放主線才可看後續)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書籤數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數字越大開啟越後面的劇情，在特定章節時也會解放各角色羈絆上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以讓玩家自定義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20字元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日登入1+對戰可取得4+VIP可以多3張，一張書籤可以解放一小段落劇情，當日沒用完就會歸0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿來轉蛋/提升羈絆/解放劇情的課金貨幣，初次通過關卡/每日任務/活動任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書籤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日登入/每日任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金貨幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主線道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日任務/活動/主線/PVP天梯/積分賽/課金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書籤替代/羈絆替代/轉蛋/造型交換券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日登入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP追加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/10/15/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日首場錦標賽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇情一章節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日投放點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單次投放點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週期性投放點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1v1月末結算獎勵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15~300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月末積分賽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錦標賽月末結算獎勵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇情一段落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20~50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP每日前五場勝利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活動投放點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期間限定成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活動挑戰關卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色羈絆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一角色500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個EP1600~2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羈絆替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書籤替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1交換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:25交換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:15交換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉蛋10+1連抽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:250交換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月SKIN券(第1回)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月SKIN券(第2回)</t>
+  </si>
+  <si>
+    <t>每月SKIN券(第3回)</t>
+  </si>
+  <si>
+    <t>VIP限定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金交換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>價格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代幣1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP包月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP包季+造型自選券*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP半年+造型自選券*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100張書籤禮包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP的忠誠點數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP限定造型交換/書籤交換/代幣交換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP限定造型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過去活動中造型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代幣300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書籤三張</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共16種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供那些已經endgame玩家的福利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉蛋中能取得稍微便宜一點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速VIP玩家推主線進度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP印章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP的忠誠點數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP剩餘天數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP以日為單位計算，跨日減一，歸零後就失去VIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無限時書籤數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無限時的書籤，記得要寫上限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2^16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>為真的時候可以使用VIP商店和VIP的各種福利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能相同但分為轉蛋or課金的永久書籤和使用期限一天的一般書籤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各造型解放狀態</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +905,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,6 +925,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -269,7 +965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +974,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -294,6 +999,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="連謙(Chien)" id="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" userId="S::chienlien@udreamgame.com::e1434b1d-6639-49e1-97f4-c051fd5571f0" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,12 +1302,71 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B4" dT="2020-08-13T08:59:23.09" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{2CC79CF0-31A9-4616-A3B9-6818A64F0B00}">
+    <text>依名次1 2 四強 八強</text>
+  </threadedComment>
+  <threadedComment ref="B10" dT="2020-08-13T09:05:13.55" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{54FB2E9B-E4CB-4FAB-9609-B65C7C122A80}">
+    <text>大概40~80張書籤能夠完成一個章節</text>
+  </threadedComment>
+  <threadedComment ref="B11" dT="2020-08-13T09:04:26.42" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{25213E88-5974-4F29-922A-3C154CE5BB47}">
+    <text>大約5~10張書籤能夠完成一段落劇情</text>
+  </threadedComment>
+  <threadedComment ref="B12" dT="2020-08-13T09:05:42.97" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{7D80912D-8296-4955-9E12-D743246BBC1D}">
+    <text>視類型而定</text>
+  </threadedComment>
+  <threadedComment ref="B15" dT="2020-08-13T09:09:27.59" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{4CEA781B-6B50-464E-97DB-FB61F5025886}">
+    <text>通常會是5章左右就結束</text>
+  </threadedComment>
+  <threadedComment ref="B17" dT="2020-08-13T09:29:49.61" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{C87613FD-E7F6-413A-8155-C41B9E232980}">
+    <text>取得最高評價的情況</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" dT="2020-08-13T09:31:10.21" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{D2390471-4588-4DBB-902E-6F0DBCD4536E}">
+    <text>轉蛋轉出來的是無期限書籤，價值比單純的替代高</text>
+  </threadedComment>
+  <threadedComment ref="B6" dT="2020-08-13T09:36:35.26" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{9C7292D0-B17D-4B69-BE19-8BD71C203A0A}">
+    <text>可以自選當期選出的過去八種限定造型中其一</text>
+  </threadedComment>
+  <threadedComment ref="B6" dT="2020-08-13T09:37:28.08" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{5C8CBB54-0EE9-4E9D-9B77-2955CC734D84}" parentId="{9C7292D0-B17D-4B69-BE19-8BD71C203A0A}">
+    <text>也可以拆成上下半月，但共用券的額度</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C2" dT="2020-08-13T09:55:30.76" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{F187925E-B140-4145-9069-9D161E7BB14A}">
+    <text>全角色都有，價格是30天每天農好農滿剛好夠換一角色</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A3" dT="2020-08-13T09:44:14.69" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{DB1EAAB5-FBF0-4AE1-945B-D8494013391C}">
+    <text>30天</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2020-08-13T09:44:22.17" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{67EB9B90-9EEA-469D-853A-A75C6CD3EA6D}">
+    <text>90天</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2020-08-13T09:44:28.64" personId="{235C5C20-C60D-4502-99AE-FCF45F3E5D64}" id="{12C8A888-17B1-4F2B-9F35-F9B8409F16BF}">
+    <text>180天</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305414E9-5AA2-49B7-AC46-90DC1BBF1F14}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -775,4 +1545,909 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBCAC56-7BE3-4842-8F5A-2DD90EEEBA92}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="3" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="80.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23">
+        <v>9999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0DD357-0F70-4120-8D18-273ED136A6C9}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="41.6328125" customWidth="1"/>
+    <col min="4" max="4" width="48.26953125" customWidth="1"/>
+    <col min="5" max="5" width="47.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EACB691-A9BE-463F-AC8C-F1523DBFF53B}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2380</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AFAB5A-7807-42CD-8BBD-77FED09B4C14}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F2CBEE-28E9-42C6-AF52-612478006339}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A2F8EC-CBEE-438F-848B-7752B781B24D}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6">
+        <v>1650</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/GDD/數值.xlsx
+++ b/GDD/數值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chienlien\Desktop\Qiz\CODE\GDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AF9417-C899-42F4-8638-0379F82FE7BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61A76D2-9793-4391-AA08-073A8B90ADE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{8BC723B8-6BEA-4E58-B647-6EF89256682C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8BC723B8-6BEA-4E58-B647-6EF89256682C}"/>
   </bookViews>
   <sheets>
     <sheet name="PVP答題設定" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="183">
   <si>
     <t>雙方正解的場合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>應該也是在遊戲中可以更改，登入用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登入天數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -898,6 +894,26 @@
   </si>
   <si>
     <t>各造型解放狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20字元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限定英數字分大小寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限定英數字分大小寫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1366,7 +1382,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1549,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBCAC56-7BE3-4842-8F5A-2DD90EEEBA92}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1570,7 +1586,7 @@
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
         <v>48</v>
@@ -1584,7 +1600,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -1592,309 +1608,323 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20">
-        <v>99</v>
+        <v>166</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
         <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
         <v>167</v>
-      </c>
-      <c r="C23">
-        <v>9999</v>
-      </c>
-      <c r="D23" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>166</v>
+      </c>
+      <c r="C24">
+        <v>9999</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0DD357-0F70-4120-8D18-273ED136A6C9}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1922,64 +1952,64 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
         <v>155</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2006,18 +2036,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -2028,7 +2058,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2037,18 +2067,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
         <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -2056,21 +2086,21 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
         <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2078,10 +2108,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2089,10 +2119,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
         <v>117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2100,18 +2130,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -2120,12 +2150,12 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -2136,62 +2166,62 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
         <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>50</v>
       </c>
       <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" t="s">
         <v>131</v>
-      </c>
-      <c r="E13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15">
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17">
         <v>250</v>
@@ -2199,10 +2229,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -2238,47 +2268,47 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6">
         <v>750</v>
@@ -2286,7 +2316,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7">
         <v>1500</v>
@@ -2294,13 +2324,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8">
         <v>2000</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2326,54 +2356,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5">
         <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2399,15 +2429,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
         <v>147</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2">
         <v>2380</v>
@@ -2415,7 +2445,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>350</v>
@@ -2423,7 +2453,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>950</v>
@@ -2431,7 +2461,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5">
         <v>1650</v>
@@ -2439,7 +2469,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6">
         <v>1650</v>

--- a/GDD/數值.xlsx
+++ b/GDD/數值.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chienlien\Desktop\Qiz\CODE\GDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61A76D2-9793-4391-AA08-073A8B90ADE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7489B3-41A2-4BE7-9150-6CA63D82ED4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8BC723B8-6BEA-4E58-B647-6EF89256682C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8BC723B8-6BEA-4E58-B647-6EF89256682C}"/>
   </bookViews>
   <sheets>
-    <sheet name="PVP答題設定" sheetId="1" r:id="rId1"/>
-    <sheet name="資料庫" sheetId="2" r:id="rId2"/>
-    <sheet name="貨幣整理" sheetId="3" r:id="rId3"/>
-    <sheet name="代幣投放" sheetId="4" r:id="rId4"/>
-    <sheet name="代幣消耗" sheetId="5" r:id="rId5"/>
-    <sheet name="VIP商店" sheetId="7" r:id="rId6"/>
-    <sheet name="課金價格表" sheetId="6" r:id="rId7"/>
+    <sheet name="初期設定" sheetId="1" r:id="rId1"/>
+    <sheet name="個人頁面" sheetId="8" r:id="rId2"/>
+    <sheet name="資料庫" sheetId="2" r:id="rId3"/>
+    <sheet name="貨幣整理" sheetId="3" r:id="rId4"/>
+    <sheet name="代幣投放" sheetId="4" r:id="rId5"/>
+    <sheet name="代幣消耗" sheetId="5" r:id="rId6"/>
+    <sheet name="VIP商店" sheetId="7" r:id="rId7"/>
+    <sheet name="課金價格表" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -185,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="216">
   <si>
     <t>雙方正解的場合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,22 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>媞古[降靈術．金] 24秒  答題階段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莎美[D．D．D]  20秒 選題階段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芭冷[百步蛇的新娘] 18秒 選題階段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>露露塔[Life of Live] 15秒 答題階段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,6 +899,154 @@
   </si>
   <si>
     <t>限定英數字分大小寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡介頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>體重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>興趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媞古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉穩安靜的文學少女，平時管理著研究所的圖書館，擅長尋找解答，是攻守兼備的一名角色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和書本有關的一切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降靈術．金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藉由CORE將通靈的能力增幅，召來錢仙來找出解答。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除兩個錯誤選項。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D．D．D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">莎美[D．D．D]  20秒 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">媞古[降靈術．金] 24秒  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">芭冷[百步蛇的新娘] 18秒 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">露露塔[Life of Live] 15秒 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藉由CORE的力量將大腦運轉全開，強制干擾周遭的儀器，會讓對手的題目的文字順序混亂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發動後下一題讓對手的文字順序混亂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發動後下兩題讓對手的文字順序混亂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>調戲主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露露塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我行我素的水手服少女，能夠使用獨特的干擾技，讓戰局陷入大混亂趁機取得勝利。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然毒舌系偶像，操作和答題時間有關係的技能，是在領先時也能逐步擴大優勢的角色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自魯凱族的神話公主，擁有限制對手行動的技能，控制力十分強大的一名角色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀察爬蟲類、瑜珈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶像活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百步蛇之女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life of Live</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藉由CORE創造屬於自己的舞台，吸引全場注意，進入個人秀的時間。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解放CORE的力量，如蛇髮女妖一樣暫時封住他人的行動。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本題的消耗時間為0。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本題消耗時間變為原本的1/5。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發動後下一題對手無法在3秒內作答。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,6 +1132,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,22 +1517,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305414E9-5AA2-49B7-AC46-90DC1BBF1F14}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" customWidth="1"/>
-    <col min="2" max="2" width="65.36328125" customWidth="1"/>
-    <col min="3" max="3" width="98.90625" customWidth="1"/>
+    <col min="1" max="1" width="57.125" customWidth="1"/>
+    <col min="2" max="2" width="65.375" customWidth="1"/>
+    <col min="3" max="3" width="98.875" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="5" width="49.54296875" customWidth="1"/>
-    <col min="6" max="6" width="48.453125" customWidth="1"/>
-    <col min="7" max="7" width="47.7265625" customWidth="1"/>
+    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="7" max="7" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1404,7 +1540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1429,7 +1565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1446,7 +1582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1466,12 +1602,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1488,9 +1624,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -1502,9 +1638,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -1525,9 +1661,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
@@ -1539,9 +1675,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -1564,370 +1700,188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBCAC56-7BE3-4842-8F5A-2DD90EEEBA92}">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0B1397-D5DD-4410-BB3D-F35C5B8B405B}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" customWidth="1"/>
-    <col min="2" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="80.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="9" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4">
+        <v>151</v>
+      </c>
+      <c r="D4">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5">
+        <v>157</v>
+      </c>
+      <c r="D5">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21">
-        <v>99</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24">
-        <v>9999</v>
-      </c>
-      <c r="D24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
+        <v>205</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6">
+        <v>164</v>
+      </c>
+      <c r="D6">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1935,81 +1889,367 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0DD357-0F70-4120-8D18-273ED136A6C9}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBCAC56-7BE3-4842-8F5A-2DD90EEEBA92}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="41.6328125" customWidth="1"/>
-    <col min="4" max="4" width="48.26953125" customWidth="1"/>
-    <col min="5" max="5" width="47.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="80.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
         <v>99</v>
       </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24">
+        <v>9999</v>
+      </c>
+      <c r="D24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2020,6 +2260,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0DD357-0F70-4120-8D18-273ED136A6C9}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+    <col min="4" max="4" width="48.25" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EACB691-A9BE-463F-AC8C-F1523DBFF53B}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -2027,27 +2352,27 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -2056,9 +2381,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2067,81 +2392,81 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -2150,12 +2475,12 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -2164,78 +2489,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B13">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B15">
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B17">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2380</v>
       </c>
@@ -2251,7 +2576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AFAB5A-7807-42CD-8BBD-77FED09B4C14}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2259,151 +2584,78 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
         <v>133</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>141</v>
       </c>
       <c r="B6">
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7">
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B8">
         <v>2000</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F2CBEE-28E9-42C6-AF52-612478006339}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2">
-        <v>150</v>
-      </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2414,6 +2666,79 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F2CBEE-28E9-42C6-AF52-612478006339}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A2F8EC-CBEE-438F-848B-7752B781B24D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2421,55 +2746,55 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B2">
         <v>2380</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B3">
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4">
         <v>950</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5">
         <v>1650</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6">
         <v>1650</v>

--- a/GDD/數值.xlsx
+++ b/GDD/數值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chienlien\Desktop\Qiz\CODE\GDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7489B3-41A2-4BE7-9150-6CA63D82ED4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E422BAB9-2766-41F7-9F26-F61FD45FF5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8BC723B8-6BEA-4E58-B647-6EF89256682C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{8BC723B8-6BEA-4E58-B647-6EF89256682C}"/>
   </bookViews>
   <sheets>
     <sheet name="初期設定" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="代幣消耗" sheetId="5" r:id="rId6"/>
     <sheet name="VIP商店" sheetId="7" r:id="rId7"/>
     <sheet name="課金價格表" sheetId="6" r:id="rId8"/>
+    <sheet name="羈絆等級表" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="259">
   <si>
     <t>雙方正解的場合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1047,6 +1048,178 @@
   </si>
   <si>
     <t>發動後下一題對手無法在3秒內作答。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羈絆值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解放內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色解放劇情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使用對話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色個人劇情1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色個人劇情2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色個人劇情3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色個人劇情4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色個人劇情5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色個人劇情6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色個人劇情7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情8-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情8-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色個人劇情8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情9-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情9-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色個人劇情10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色個人劇情9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情10-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色小劇情10-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色個人劇情11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,12 +1265,24 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1114,7 +1299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,6 +1320,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1703,7 +1894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0B1397-D5DD-4410-BB3D-F35C5B8B405B}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1892,7 +2083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBCAC56-7BE3-4842-8F5A-2DD90EEEBA92}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2805,4 +2996,703 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D123B90D-25FF-44B1-9DC5-1ED30B24C2CA}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>100</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>150</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>200</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>250</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>250</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>350</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
+        <v>450</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
+        <v>550</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>600</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7">
+        <v>750</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8">
+        <v>750</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8">
+        <v>900</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1050</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>3</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1125</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1250</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1250</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1400</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1550</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1625</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1700</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1750</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1750</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1900</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>5</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2100</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2300</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2500</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>6</v>
+      </c>
+      <c r="B30" s="7">
+        <v>2500</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2650</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2850</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3050</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>6</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3250</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>7</v>
+      </c>
+      <c r="B35" s="8">
+        <v>3250</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>7</v>
+      </c>
+      <c r="B36" s="8">
+        <v>3400</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>7</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3600</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>7</v>
+      </c>
+      <c r="B38" s="8">
+        <v>3800</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>7</v>
+      </c>
+      <c r="B39" s="8">
+        <v>4000</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>8</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4000</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>8</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4250</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>8</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4500</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>8</v>
+      </c>
+      <c r="B43" s="7">
+        <v>4750</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>8</v>
+      </c>
+      <c r="B44" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>9</v>
+      </c>
+      <c r="B45" s="8">
+        <v>5000</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>9</v>
+      </c>
+      <c r="B46" s="8">
+        <v>5250</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>9</v>
+      </c>
+      <c r="B47" s="8">
+        <v>5500</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>9</v>
+      </c>
+      <c r="B48" s="8">
+        <v>5750</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>9</v>
+      </c>
+      <c r="B49" s="8">
+        <v>6000</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>10</v>
+      </c>
+      <c r="B50" s="7">
+        <v>6000</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>10</v>
+      </c>
+      <c r="B51" s="7">
+        <v>6250</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>10</v>
+      </c>
+      <c r="B52" s="7">
+        <v>6500</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>10</v>
+      </c>
+      <c r="B53" s="7">
+        <v>6750</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>10</v>
+      </c>
+      <c r="B54" s="7">
+        <v>7500</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D54" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D30:D34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GDD/數值.xlsx
+++ b/GDD/數值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chienlien\Desktop\Qiz\CODE\GDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E422BAB9-2766-41F7-9F26-F61FD45FF5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1294B85-50FD-4080-A471-E28001A07CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{8BC723B8-6BEA-4E58-B647-6EF89256682C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8BC723B8-6BEA-4E58-B647-6EF89256682C}"/>
   </bookViews>
   <sheets>
     <sheet name="初期設定" sheetId="1" r:id="rId1"/>
@@ -983,14 +983,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>發動後下一題讓對手的文字順序混亂。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發動後下兩題讓對手的文字順序混亂。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>調戲主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1039,14 +1031,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本題的消耗時間為0。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本題消耗時間變為原本的1/5。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>發動後下一題對手無法在3秒內作答。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1220,6 +1204,22 @@
   </si>
   <si>
     <t>角色個人劇情11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發動後下一題讓對手的題目產生混亂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發動後下一題讓對手的題目及選項產生混亂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發動後4秒內時間消耗變為1/3。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發動後4秒內時間暫停。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,14 +1318,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1894,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0B1397-D5DD-4410-BB3D-F35C5B8B405B}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1909,19 +1909,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1986,7 +1986,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4">
         <v>151</v>
@@ -1995,7 +1995,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
         <v>193</v>
@@ -2004,18 +2004,18 @@
         <v>198</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C5">
         <v>157</v>
@@ -2024,27 +2024,27 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" t="s">
         <v>208</v>
       </c>
-      <c r="F5" t="s">
-        <v>210</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H5" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="I5" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6">
         <v>164</v>
@@ -2053,16 +2053,16 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" t="s">
         <v>207</v>
       </c>
-      <c r="F6" t="s">
-        <v>209</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -3002,7 +3002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D123B90D-25FF-44B1-9DC5-1ED30B24C2CA}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
@@ -3013,670 +3013,670 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>100</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>150</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>200</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>250</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>250</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6">
+        <v>350</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>450</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6">
+        <v>550</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6">
+        <v>600</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6">
+        <v>750</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7">
+        <v>750</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7">
+        <v>900</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1050</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1125</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1250</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1250</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1400</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1550</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1625</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1700</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1750</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>5</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1750</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>5</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1900</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>5</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2100</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>5</v>
+      </c>
+      <c r="B28" s="7">
+        <v>2300</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>5</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2500</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>6</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2500</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2650</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2850</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6">
+        <v>3050</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>6</v>
+      </c>
+      <c r="B34" s="6">
+        <v>3250</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3250</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>7</v>
+      </c>
+      <c r="B36" s="7">
+        <v>3400</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>7</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3600</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>7</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3800</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>50</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8">
-        <v>100</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8">
-        <v>150</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8">
-        <v>200</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>7</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4000</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>8</v>
+      </c>
+      <c r="B40" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>8</v>
+      </c>
+      <c r="B41" s="6">
+        <v>4250</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>8</v>
+      </c>
+      <c r="B42" s="6">
+        <v>4500</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>8</v>
+      </c>
+      <c r="B43" s="6">
+        <v>4750</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>9</v>
+      </c>
+      <c r="B45" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>9</v>
+      </c>
+      <c r="B46" s="7">
+        <v>5250</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>9</v>
+      </c>
+      <c r="B47" s="7">
+        <v>5500</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>9</v>
+      </c>
+      <c r="B48" s="7">
+        <v>5750</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>9</v>
+      </c>
+      <c r="B49" s="7">
+        <v>6000</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>10</v>
+      </c>
+      <c r="B50" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>10</v>
+      </c>
+      <c r="B51" s="6">
+        <v>6250</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>10</v>
+      </c>
+      <c r="B52" s="6">
+        <v>6500</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>10</v>
+      </c>
+      <c r="B53" s="6">
+        <v>6750</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7">
-        <v>250</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>350</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7">
-        <v>450</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7">
-        <v>550</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7">
-        <v>600</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7">
-        <v>750</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8">
-        <v>750</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>3</v>
-      </c>
-      <c r="B15" s="8">
-        <v>900</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>3</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1050</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>3</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1125</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>3</v>
-      </c>
-      <c r="B18" s="8">
-        <v>1250</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>4</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1250</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>4</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1400</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1550</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>4</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1625</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>4</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1700</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>4</v>
-      </c>
-      <c r="B24" s="7">
-        <v>1750</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>5</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1750</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>5</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1900</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>5</v>
-      </c>
-      <c r="B27" s="8">
-        <v>2100</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>5</v>
-      </c>
-      <c r="B28" s="8">
-        <v>2300</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>5</v>
-      </c>
-      <c r="B29" s="8">
-        <v>2500</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>6</v>
-      </c>
-      <c r="B30" s="7">
-        <v>2500</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>6</v>
-      </c>
-      <c r="B31" s="7">
-        <v>2650</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>6</v>
-      </c>
-      <c r="B32" s="7">
-        <v>2850</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>6</v>
-      </c>
-      <c r="B33" s="7">
-        <v>3050</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>6</v>
-      </c>
-      <c r="B34" s="7">
-        <v>3250</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>7</v>
-      </c>
-      <c r="B35" s="8">
-        <v>3250</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>7</v>
-      </c>
-      <c r="B36" s="8">
-        <v>3400</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>7</v>
-      </c>
-      <c r="B37" s="8">
-        <v>3600</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>7</v>
-      </c>
-      <c r="B38" s="8">
-        <v>3800</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>7</v>
-      </c>
-      <c r="B39" s="8">
-        <v>4000</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>8</v>
-      </c>
-      <c r="B40" s="7">
-        <v>4000</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>8</v>
-      </c>
-      <c r="B41" s="7">
-        <v>4250</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>8</v>
-      </c>
-      <c r="B42" s="7">
-        <v>4500</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>8</v>
-      </c>
-      <c r="B43" s="7">
-        <v>4750</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>8</v>
-      </c>
-      <c r="B44" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>9</v>
-      </c>
-      <c r="B45" s="8">
-        <v>5000</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>9</v>
-      </c>
-      <c r="B46" s="8">
-        <v>5250</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>9</v>
-      </c>
-      <c r="B47" s="8">
-        <v>5500</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>9</v>
-      </c>
-      <c r="B48" s="8">
-        <v>5750</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <v>9</v>
-      </c>
-      <c r="B49" s="8">
-        <v>6000</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
         <v>10</v>
       </c>
-      <c r="B50" s="7">
-        <v>6000</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>10</v>
-      </c>
-      <c r="B51" s="7">
-        <v>6250</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>10</v>
-      </c>
-      <c r="B52" s="7">
-        <v>6500</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>10</v>
-      </c>
-      <c r="B53" s="7">
-        <v>6750</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="B54" s="6">
+        <v>7500</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>10</v>
-      </c>
-      <c r="B54" s="7">
-        <v>7500</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
